--- a/contratos/contratos-1-2018.xlsx
+++ b/contratos/contratos-1-2018.xlsx
@@ -1051,7 +1051,7 @@
     <t>A. ROPELATO S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CONHOR S.R.L.</t>
@@ -1159,7 +1159,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -1357,7 +1357,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROMERO ELIO RAFAEL</t>
@@ -1399,7 +1399,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>COOPERATIVA DE TRABAJO ENTRELAZANDO LTDA.</t>
@@ -2047,835 +2047,835 @@
     <t>17</t>
   </si>
   <si>
-    <t>11.775,12</t>
-  </si>
-  <si>
-    <t>17.175,00</t>
-  </si>
-  <si>
-    <t>109.980,60</t>
-  </si>
-  <si>
-    <t>16.200,00</t>
-  </si>
-  <si>
-    <t>195.000,00</t>
-  </si>
-  <si>
-    <t>160.000,00</t>
-  </si>
-  <si>
-    <t>1.122.000,00</t>
-  </si>
-  <si>
-    <t>87.733,24</t>
-  </si>
-  <si>
-    <t>360.000,00</t>
-  </si>
-  <si>
-    <t>1.901.000,00</t>
-  </si>
-  <si>
-    <t>1.970,00</t>
-  </si>
-  <si>
-    <t>9.860,00</t>
-  </si>
-  <si>
-    <t>9.360,00</t>
-  </si>
-  <si>
-    <t>9.788,90</t>
-  </si>
-  <si>
-    <t>812.770,72</t>
-  </si>
-  <si>
-    <t>435.600,00</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>2.920,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>1.674,00</t>
-  </si>
-  <si>
-    <t>46.488,00</t>
-  </si>
-  <si>
-    <t>3.162.827,64</t>
-  </si>
-  <si>
-    <t>15.470,00</t>
-  </si>
-  <si>
-    <t>17.475,00</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>69.632,08</t>
-  </si>
-  <si>
-    <t>66.680,00</t>
-  </si>
-  <si>
-    <t>2.933,40</t>
-  </si>
-  <si>
-    <t>8.300,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>5.180,50</t>
-  </si>
-  <si>
-    <t>47.280,36</t>
-  </si>
-  <si>
-    <t>504,00</t>
-  </si>
-  <si>
-    <t>4.463,00</t>
-  </si>
-  <si>
-    <t>33.825,98</t>
-  </si>
-  <si>
-    <t>16.750,00</t>
-  </si>
-  <si>
-    <t>9.350,00</t>
-  </si>
-  <si>
-    <t>13.670,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>2.380,00</t>
-  </si>
-  <si>
-    <t>1.160,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>17.737,00</t>
-  </si>
-  <si>
-    <t>50.240,00</t>
-  </si>
-  <si>
-    <t>59,40</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>47,76</t>
-  </si>
-  <si>
-    <t>114.054,00</t>
-  </si>
-  <si>
-    <t>84.129,62</t>
-  </si>
-  <si>
-    <t>68.650,00</t>
-  </si>
-  <si>
-    <t>6.109,40</t>
-  </si>
-  <si>
-    <t>3.130,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>185.540,00</t>
-  </si>
-  <si>
-    <t>172.091,50</t>
-  </si>
-  <si>
-    <t>8.137,47</t>
-  </si>
-  <si>
-    <t>2.290,00</t>
-  </si>
-  <si>
-    <t>7.995,00</t>
-  </si>
-  <si>
-    <t>1.299,00</t>
-  </si>
-  <si>
-    <t>39.414,84</t>
-  </si>
-  <si>
-    <t>2.658,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>21.335,80</t>
-  </si>
-  <si>
-    <t>108,00</t>
-  </si>
-  <si>
-    <t>10.399,60</t>
-  </si>
-  <si>
-    <t>568,00</t>
-  </si>
-  <si>
-    <t>35.755,35</t>
-  </si>
-  <si>
-    <t>3.157,00</t>
-  </si>
-  <si>
-    <t>8.930,00</t>
-  </si>
-  <si>
-    <t>2.760,22</t>
-  </si>
-  <si>
-    <t>2.484,00</t>
-  </si>
-  <si>
-    <t>22.662,94</t>
-  </si>
-  <si>
-    <t>55,00</t>
-  </si>
-  <si>
-    <t>33.709,10</t>
-  </si>
-  <si>
-    <t>367,71</t>
-  </si>
-  <si>
-    <t>35.135,66</t>
-  </si>
-  <si>
-    <t>8.243,73</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>3.190,00</t>
-  </si>
-  <si>
-    <t>4.960,00</t>
-  </si>
-  <si>
-    <t>7.256,04</t>
-  </si>
-  <si>
-    <t>23.304,35</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>1.030,10</t>
-  </si>
-  <si>
-    <t>1.460,00</t>
-  </si>
-  <si>
-    <t>115.000,00</t>
-  </si>
-  <si>
-    <t>23.170,00</t>
-  </si>
-  <si>
-    <t>6.510,00</t>
-  </si>
-  <si>
-    <t>966,56</t>
-  </si>
-  <si>
-    <t>5.787,00</t>
-  </si>
-  <si>
-    <t>3.793,13</t>
-  </si>
-  <si>
-    <t>352,52</t>
-  </si>
-  <si>
-    <t>243,10</t>
-  </si>
-  <si>
-    <t>6.149,90</t>
-  </si>
-  <si>
-    <t>6.285,00</t>
-  </si>
-  <si>
-    <t>106.067,70</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>15.800,00</t>
-  </si>
-  <si>
-    <t>17.215,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>4.320,00</t>
-  </si>
-  <si>
-    <t>1.470,00</t>
-  </si>
-  <si>
-    <t>6.750,00</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>25.730,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>73.217,02</t>
-  </si>
-  <si>
-    <t>112.926,00</t>
-  </si>
-  <si>
-    <t>20.810,00</t>
-  </si>
-  <si>
-    <t>370,00</t>
-  </si>
-  <si>
-    <t>37.675,00</t>
-  </si>
-  <si>
-    <t>199,00</t>
-  </si>
-  <si>
-    <t>156.581,60</t>
-  </si>
-  <si>
-    <t>3.950,00</t>
-  </si>
-  <si>
-    <t>14.157,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>7.056,00</t>
-  </si>
-  <si>
-    <t>1.355,00</t>
-  </si>
-  <si>
-    <t>3.934,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>254,74</t>
-  </si>
-  <si>
-    <t>13.935.513,23</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>26.306,58</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>3.494,00</t>
-  </si>
-  <si>
-    <t>11.300,00</t>
-  </si>
-  <si>
-    <t>13.125,72</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>1.704,00</t>
-  </si>
-  <si>
-    <t>13.654,40</t>
-  </si>
-  <si>
-    <t>23.543,10</t>
-  </si>
-  <si>
-    <t>12.198,92</t>
-  </si>
-  <si>
-    <t>699.000,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>319,00</t>
-  </si>
-  <si>
-    <t>151,40</t>
-  </si>
-  <si>
-    <t>825,00</t>
-  </si>
-  <si>
-    <t>9.142,00</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>28.365,00</t>
-  </si>
-  <si>
-    <t>41.056,05</t>
-  </si>
-  <si>
-    <t>2.088,00</t>
-  </si>
-  <si>
-    <t>2.999,50</t>
-  </si>
-  <si>
-    <t>9.478,30</t>
-  </si>
-  <si>
-    <t>1.557,00</t>
-  </si>
-  <si>
-    <t>2.086,50</t>
-  </si>
-  <si>
-    <t>209,70</t>
-  </si>
-  <si>
-    <t>1.797,50</t>
-  </si>
-  <si>
-    <t>32.386,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>179,03</t>
-  </si>
-  <si>
-    <t>3.360,00</t>
-  </si>
-  <si>
-    <t>123.000,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>300.000,00</t>
-  </si>
-  <si>
-    <t>83.000,00</t>
-  </si>
-  <si>
-    <t>9.680,00</t>
-  </si>
-  <si>
-    <t>42.350,00</t>
-  </si>
-  <si>
-    <t>109.950,00</t>
-  </si>
-  <si>
-    <t>54.400,00</t>
-  </si>
-  <si>
-    <t>42.662,00</t>
-  </si>
-  <si>
-    <t>4.560,00</t>
-  </si>
-  <si>
-    <t>13.400,00</t>
-  </si>
-  <si>
-    <t>16.730,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>75.200,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>4.790,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>3.137.259,00</t>
-  </si>
-  <si>
-    <t>10.100,00</t>
-  </si>
-  <si>
-    <t>3.355,99</t>
-  </si>
-  <si>
-    <t>1.259,88</t>
-  </si>
-  <si>
-    <t>21.341,42</t>
-  </si>
-  <si>
-    <t>4.943,50</t>
-  </si>
-  <si>
-    <t>46.165,98</t>
-  </si>
-  <si>
-    <t>3.600.000,00</t>
-  </si>
-  <si>
-    <t>477.600,00</t>
-  </si>
-  <si>
-    <t>41.724,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>13.260,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>27.776,00</t>
-  </si>
-  <si>
-    <t>1.815,00</t>
-  </si>
-  <si>
-    <t>20.700,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>890,11</t>
-  </si>
-  <si>
-    <t>7.060,00</t>
-  </si>
-  <si>
-    <t>5.520,02</t>
-  </si>
-  <si>
-    <t>17.274,00</t>
-  </si>
-  <si>
-    <t>26.805,00</t>
-  </si>
-  <si>
-    <t>7.700,00</t>
-  </si>
-  <si>
-    <t>786,02</t>
-  </si>
-  <si>
-    <t>6.140,75</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>1.282,04</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>4.693,00</t>
-  </si>
-  <si>
-    <t>19.481,00</t>
-  </si>
-  <si>
-    <t>7.060,35</t>
-  </si>
-  <si>
-    <t>2.940,00</t>
-  </si>
-  <si>
-    <t>1.176,12</t>
-  </si>
-  <si>
-    <t>16.809,93</t>
-  </si>
-  <si>
-    <t>7.990,30</t>
-  </si>
-  <si>
-    <t>1.890,00</t>
-  </si>
-  <si>
-    <t>109.943,03</t>
-  </si>
-  <si>
-    <t>3.040,00</t>
-  </si>
-  <si>
-    <t>48.071,00</t>
-  </si>
-  <si>
-    <t>9.967,09</t>
-  </si>
-  <si>
-    <t>9.660,00</t>
-  </si>
-  <si>
-    <t>8.820,00</t>
-  </si>
-  <si>
-    <t>10.525,00</t>
-  </si>
-  <si>
-    <t>1.710,65</t>
-  </si>
-  <si>
-    <t>43.749,92</t>
-  </si>
-  <si>
-    <t>15.016,51</t>
-  </si>
-  <si>
-    <t>13.939,20</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>60.616,00</t>
-  </si>
-  <si>
-    <t>34.999,20</t>
-  </si>
-  <si>
-    <t>44.400,00</t>
-  </si>
-  <si>
-    <t>3.790,00</t>
-  </si>
-  <si>
-    <t>4.982,22</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>139.500,00</t>
-  </si>
-  <si>
-    <t>1.738.400,00</t>
-  </si>
-  <si>
-    <t>279.300,00</t>
-  </si>
-  <si>
-    <t>9.593.314,01</t>
-  </si>
-  <si>
-    <t>239.921,65</t>
-  </si>
-  <si>
-    <t>655.500,00</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>148.500,00</t>
-  </si>
-  <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>381.400,00</t>
-  </si>
-  <si>
-    <t>350.000,00</t>
-  </si>
-  <si>
-    <t>342.500,00</t>
-  </si>
-  <si>
-    <t>269.910,00</t>
-  </si>
-  <si>
-    <t>244.000,00</t>
-  </si>
-  <si>
-    <t>140.866,00</t>
-  </si>
-  <si>
-    <t>381.350,07</t>
-  </si>
-  <si>
-    <t>4.043.753,72</t>
-  </si>
-  <si>
-    <t>44.605,00</t>
-  </si>
-  <si>
-    <t>9.434.266,08</t>
-  </si>
-  <si>
-    <t>3.320.308,79</t>
-  </si>
-  <si>
-    <t>20.680,00</t>
-  </si>
-  <si>
-    <t>180.000,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>21.575,00</t>
-  </si>
-  <si>
-    <t>44.280,00</t>
-  </si>
-  <si>
-    <t>19.680,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>67.000,00</t>
-  </si>
-  <si>
-    <t>37.000,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>46.000,00</t>
-  </si>
-  <si>
-    <t>27.539,60</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>19.163,04</t>
-  </si>
-  <si>
-    <t>4.595,00</t>
-  </si>
-  <si>
-    <t>15.052,00</t>
+    <t>11775.12</t>
+  </si>
+  <si>
+    <t>17175.00</t>
+  </si>
+  <si>
+    <t>109980.60</t>
+  </si>
+  <si>
+    <t>16200.00</t>
+  </si>
+  <si>
+    <t>195000.00</t>
+  </si>
+  <si>
+    <t>160000.00</t>
+  </si>
+  <si>
+    <t>1122000.00</t>
+  </si>
+  <si>
+    <t>87733.24</t>
+  </si>
+  <si>
+    <t>360000.00</t>
+  </si>
+  <si>
+    <t>1901000.00</t>
+  </si>
+  <si>
+    <t>1970.00</t>
+  </si>
+  <si>
+    <t>9860.00</t>
+  </si>
+  <si>
+    <t>9360.00</t>
+  </si>
+  <si>
+    <t>9788.90</t>
+  </si>
+  <si>
+    <t>812770.72</t>
+  </si>
+  <si>
+    <t>435600.00</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>2920.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>1674.00</t>
+  </si>
+  <si>
+    <t>46488.00</t>
+  </si>
+  <si>
+    <t>3162827.64</t>
+  </si>
+  <si>
+    <t>15470.00</t>
+  </si>
+  <si>
+    <t>17475.00</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>69632.08</t>
+  </si>
+  <si>
+    <t>66680.00</t>
+  </si>
+  <si>
+    <t>2933.40</t>
+  </si>
+  <si>
+    <t>8300.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>5180.50</t>
+  </si>
+  <si>
+    <t>47280.36</t>
+  </si>
+  <si>
+    <t>504.00</t>
+  </si>
+  <si>
+    <t>4463.00</t>
+  </si>
+  <si>
+    <t>33825.98</t>
+  </si>
+  <si>
+    <t>16750.00</t>
+  </si>
+  <si>
+    <t>9350.00</t>
+  </si>
+  <si>
+    <t>13670.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>2380.00</t>
+  </si>
+  <si>
+    <t>1160.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>17737.00</t>
+  </si>
+  <si>
+    <t>50240.00</t>
+  </si>
+  <si>
+    <t>59.40</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>47.76</t>
+  </si>
+  <si>
+    <t>114054.00</t>
+  </si>
+  <si>
+    <t>84129.62</t>
+  </si>
+  <si>
+    <t>68650.00</t>
+  </si>
+  <si>
+    <t>6109.40</t>
+  </si>
+  <si>
+    <t>3130.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>185540.00</t>
+  </si>
+  <si>
+    <t>172091.50</t>
+  </si>
+  <si>
+    <t>8137.47</t>
+  </si>
+  <si>
+    <t>2290.00</t>
+  </si>
+  <si>
+    <t>7995.00</t>
+  </si>
+  <si>
+    <t>1299.00</t>
+  </si>
+  <si>
+    <t>39414.84</t>
+  </si>
+  <si>
+    <t>2658.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>21335.80</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>10399.60</t>
+  </si>
+  <si>
+    <t>568.00</t>
+  </si>
+  <si>
+    <t>35755.35</t>
+  </si>
+  <si>
+    <t>3157.00</t>
+  </si>
+  <si>
+    <t>8930.00</t>
+  </si>
+  <si>
+    <t>2760.22</t>
+  </si>
+  <si>
+    <t>2484.00</t>
+  </si>
+  <si>
+    <t>22662.94</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>33709.10</t>
+  </si>
+  <si>
+    <t>367.71</t>
+  </si>
+  <si>
+    <t>35135.66</t>
+  </si>
+  <si>
+    <t>8243.73</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>3190.00</t>
+  </si>
+  <si>
+    <t>4960.00</t>
+  </si>
+  <si>
+    <t>7256.04</t>
+  </si>
+  <si>
+    <t>23304.35</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>1030.10</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>115000.00</t>
+  </si>
+  <si>
+    <t>23170.00</t>
+  </si>
+  <si>
+    <t>6510.00</t>
+  </si>
+  <si>
+    <t>966.56</t>
+  </si>
+  <si>
+    <t>5787.00</t>
+  </si>
+  <si>
+    <t>3793.13</t>
+  </si>
+  <si>
+    <t>352.52</t>
+  </si>
+  <si>
+    <t>243.10</t>
+  </si>
+  <si>
+    <t>6149.90</t>
+  </si>
+  <si>
+    <t>6285.00</t>
+  </si>
+  <si>
+    <t>106067.70</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>15800.00</t>
+  </si>
+  <si>
+    <t>17215.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>4320.00</t>
+  </si>
+  <si>
+    <t>1470.00</t>
+  </si>
+  <si>
+    <t>6750.00</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>25730.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>73217.02</t>
+  </si>
+  <si>
+    <t>112926.00</t>
+  </si>
+  <si>
+    <t>20810.00</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>37675.00</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>156581.60</t>
+  </si>
+  <si>
+    <t>3950.00</t>
+  </si>
+  <si>
+    <t>14157.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>7056.00</t>
+  </si>
+  <si>
+    <t>1355.00</t>
+  </si>
+  <si>
+    <t>3934.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>254.74</t>
+  </si>
+  <si>
+    <t>13935513.23</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>26306.58</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>3494.00</t>
+  </si>
+  <si>
+    <t>11300.00</t>
+  </si>
+  <si>
+    <t>13125.72</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>1704.00</t>
+  </si>
+  <si>
+    <t>13654.40</t>
+  </si>
+  <si>
+    <t>23543.10</t>
+  </si>
+  <si>
+    <t>12198.92</t>
+  </si>
+  <si>
+    <t>699000.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>319.00</t>
+  </si>
+  <si>
+    <t>151.40</t>
+  </si>
+  <si>
+    <t>825.00</t>
+  </si>
+  <si>
+    <t>9142.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>28365.00</t>
+  </si>
+  <si>
+    <t>41056.05</t>
+  </si>
+  <si>
+    <t>2088.00</t>
+  </si>
+  <si>
+    <t>2999.50</t>
+  </si>
+  <si>
+    <t>9478.30</t>
+  </si>
+  <si>
+    <t>1557.00</t>
+  </si>
+  <si>
+    <t>2086.50</t>
+  </si>
+  <si>
+    <t>209.70</t>
+  </si>
+  <si>
+    <t>1797.50</t>
+  </si>
+  <si>
+    <t>32386.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>179.03</t>
+  </si>
+  <si>
+    <t>3360.00</t>
+  </si>
+  <si>
+    <t>123000.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>300000.00</t>
+  </si>
+  <si>
+    <t>83000.00</t>
+  </si>
+  <si>
+    <t>9680.00</t>
+  </si>
+  <si>
+    <t>42350.00</t>
+  </si>
+  <si>
+    <t>109950.00</t>
+  </si>
+  <si>
+    <t>54400.00</t>
+  </si>
+  <si>
+    <t>42662.00</t>
+  </si>
+  <si>
+    <t>4560.00</t>
+  </si>
+  <si>
+    <t>13400.00</t>
+  </si>
+  <si>
+    <t>16730.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>75200.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>4790.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>3137259.00</t>
+  </si>
+  <si>
+    <t>10100.00</t>
+  </si>
+  <si>
+    <t>3355.99</t>
+  </si>
+  <si>
+    <t>1259.88</t>
+  </si>
+  <si>
+    <t>21341.42</t>
+  </si>
+  <si>
+    <t>4943.50</t>
+  </si>
+  <si>
+    <t>46165.98</t>
+  </si>
+  <si>
+    <t>3600000.00</t>
+  </si>
+  <si>
+    <t>477600.00</t>
+  </si>
+  <si>
+    <t>41724.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>13260.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>27776.00</t>
+  </si>
+  <si>
+    <t>1815.00</t>
+  </si>
+  <si>
+    <t>20700.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>890.11</t>
+  </si>
+  <si>
+    <t>7060.00</t>
+  </si>
+  <si>
+    <t>5520.02</t>
+  </si>
+  <si>
+    <t>17274.00</t>
+  </si>
+  <si>
+    <t>26805.00</t>
+  </si>
+  <si>
+    <t>7700.00</t>
+  </si>
+  <si>
+    <t>786.02</t>
+  </si>
+  <si>
+    <t>6140.75</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>1282.04</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>4693.00</t>
+  </si>
+  <si>
+    <t>19481.00</t>
+  </si>
+  <si>
+    <t>7060.35</t>
+  </si>
+  <si>
+    <t>2940.00</t>
+  </si>
+  <si>
+    <t>1176.12</t>
+  </si>
+  <si>
+    <t>16809.93</t>
+  </si>
+  <si>
+    <t>7990.30</t>
+  </si>
+  <si>
+    <t>1890.00</t>
+  </si>
+  <si>
+    <t>109943.03</t>
+  </si>
+  <si>
+    <t>3040.00</t>
+  </si>
+  <si>
+    <t>48071.00</t>
+  </si>
+  <si>
+    <t>9967.09</t>
+  </si>
+  <si>
+    <t>9660.00</t>
+  </si>
+  <si>
+    <t>8820.00</t>
+  </si>
+  <si>
+    <t>10525.00</t>
+  </si>
+  <si>
+    <t>1710.65</t>
+  </si>
+  <si>
+    <t>43749.92</t>
+  </si>
+  <si>
+    <t>15016.51</t>
+  </si>
+  <si>
+    <t>13939.20</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>60616.00</t>
+  </si>
+  <si>
+    <t>34999.20</t>
+  </si>
+  <si>
+    <t>44400.00</t>
+  </si>
+  <si>
+    <t>3790.00</t>
+  </si>
+  <si>
+    <t>4982.22</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>139500.00</t>
+  </si>
+  <si>
+    <t>1738400.00</t>
+  </si>
+  <si>
+    <t>279300.00</t>
+  </si>
+  <si>
+    <t>9593314.01</t>
+  </si>
+  <si>
+    <t>239921.65</t>
+  </si>
+  <si>
+    <t>655500.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>148500.00</t>
+  </si>
+  <si>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>381400.00</t>
+  </si>
+  <si>
+    <t>350000.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>269910.00</t>
+  </si>
+  <si>
+    <t>244000.00</t>
+  </si>
+  <si>
+    <t>140866.00</t>
+  </si>
+  <si>
+    <t>381350.07</t>
+  </si>
+  <si>
+    <t>4043753.72</t>
+  </si>
+  <si>
+    <t>44605.00</t>
+  </si>
+  <si>
+    <t>9434266.08</t>
+  </si>
+  <si>
+    <t>3320308.79</t>
+  </si>
+  <si>
+    <t>20680.00</t>
+  </si>
+  <si>
+    <t>180000.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>21575.00</t>
+  </si>
+  <si>
+    <t>44280.00</t>
+  </si>
+  <si>
+    <t>19680.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>67000.00</t>
+  </si>
+  <si>
+    <t>37000.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>46000.00</t>
+  </si>
+  <si>
+    <t>27539.60</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>19163.04</t>
+  </si>
+  <si>
+    <t>4595.00</t>
+  </si>
+  <si>
+    <t>15052.00</t>
   </si>
 </sst>
 </file>
